--- a/biology/Botanique/Eulychnia/Eulychnia.xlsx
+++ b/biology/Botanique/Eulychnia/Eulychnia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eulychnia est un genre de cactus qui comprend 9 espèces originaires de certaines régions côtières du Chili et du Pérou[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eulychnia est un genre de cactus qui comprend 9 espèces originaires de certaines régions côtières du Chili et du Pérou. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Eulychnia Phil.[2].
-Eulychnia a pour synonyme[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Eulychnia Phil..
+Eulychnia a pour synonyme :
 Philippicereus Backeb.</t>
         </is>
       </c>
@@ -543,16 +557,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 juin 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 juin 2024) :
 Eulychnia acida Phil.
 Eulychnia breviflora Phil.
 Eulychnia castanea Phil.
 Eulychnia chorosensis P.Klaassen
 Eulychnia iquiquensis (K.Schum.) Britton &amp; Rose
 Eulychnia vallenarensis P.C.Guerrero &amp; Helmut Walter
-Selon Plants of the World online (POWO)                (2 juin 2024)[3] : 
+Selon Plants of the World online (POWO)                (2 juin 2024) : 
 Eulychnia acida Phil.
 Eulychnia breviflora Phil.
 Eulychnia castanea Phil.
